--- a/TestCases/Group06_Testcases_WebsiteBanMayTinh.xlsx
+++ b/TestCases/Group06_Testcases_WebsiteBanMayTinh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tailieu\KIỂM ĐỊNH PHẦN MỀM (55 đồ án)\Group06_KDPM_LongLyLyThinhTai\Group06_KDPM_LongLyLyThinhTai\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tailieu\KIỂM ĐỊNH PHẦN MỀM (55 đồ án)\Group06_KDPM_LongLyLyThinh\computer-store-testing\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E09B09-F7D3-4C71-A55C-FDCDE439E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236A982-52F1-4EB5-B90B-0EE7934EF142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="696" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="15" r:id="rId1"/>
@@ -5478,7 +5478,7 @@
     <t>~ 98% Pass</t>
   </si>
   <si>
-    <t>Huỳnh Hoàng Hải Long, Nguyễn Thanh Ly Ly, Lại Phước Thịnh</t>
+    <t>Huỳnh Hoàng Hải Long, Nguyễn Thanh Ly Ly, Lại Phước Thịnh, Lê Tấn Tài</t>
   </si>
 </sst>
 </file>
@@ -5918,18 +5918,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5943,6 +5931,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6910,7 +6910,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.5"/>
@@ -6928,30 +6928,30 @@
         <v>450</v>
       </c>
       <c r="B1" s="48"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="48" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="48"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="32">
         <v>1</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -7000,12 +7000,12 @@
         <v>458</v>
       </c>
       <c r="B7" s="48"/>
-      <c r="C7" s="51">
+      <c r="C7" s="56">
         <v>45810</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="42" t="s">
@@ -7037,6 +7037,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -7044,12 +7050,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7059,7 +7059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64306D68-4994-4760-A1C4-96E911DD3908}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -7086,12 +7086,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -7106,12 +7106,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7186,7 +7186,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -7206,7 +7206,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -8913,12 +8913,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -8926,6 +8920,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F43:F44">
@@ -8947,7 +8947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA06A61-48EA-46C3-BFA5-68C1C20DD937}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -8973,12 +8973,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -8993,12 +8993,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -9073,7 +9073,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -9093,7 +9093,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -10536,12 +10536,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -10549,6 +10543,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F38:F39">
@@ -10570,7 +10570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401759AC-B729-46AA-8C64-40563C1B3DE2}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -10597,12 +10597,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="9"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -10617,12 +10617,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -10633,7 +10633,7 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>453</v>
       </c>
       <c r="B3" s="61"/>
@@ -10697,7 +10697,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -10717,7 +10717,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -12336,12 +12336,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -12349,6 +12343,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F42:F43">
@@ -12370,7 +12370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -12398,12 +12398,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="48"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="40"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
@@ -12418,12 +12418,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="48"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="40"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -12434,10 +12434,10 @@
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="10">
         <v>1</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -12518,7 +12518,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="48"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -16822,12 +16822,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -16835,6 +16829,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F11:F100">
@@ -16885,12 +16885,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="48"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="40"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
@@ -16905,12 +16905,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="48"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="40"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -16921,10 +16921,10 @@
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="10">
         <v>1</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -17005,7 +17005,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="48"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -19856,12 +19856,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -19869,6 +19863,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F11:F72">
@@ -19916,12 +19916,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="9"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -19936,12 +19936,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -20016,7 +20016,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -20036,7 +20036,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -20907,12 +20907,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -20920,6 +20914,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F11:F27">
@@ -20968,12 +20968,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="9"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -20988,12 +20988,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -21068,7 +21068,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -21088,7 +21088,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -23719,12 +23719,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -23732,6 +23726,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F11:F67">
@@ -23781,12 +23781,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -23801,12 +23801,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -23881,7 +23881,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -23901,7 +23901,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -24287,7 +24287,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="132">
+    <row r="17" spans="1:14" ht="115.5">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -25125,12 +25125,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -25138,6 +25132,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F11:F35">
@@ -25186,24 +25186,24 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="59" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="60" t="s">
@@ -25246,7 +25246,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -25258,7 +25258,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -26869,12 +26869,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -26882,6 +26876,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F40:F41">
@@ -26903,7 +26903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5034C1BA-DE62-45EF-85C3-111B276909F1}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -26931,12 +26931,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:14">
@@ -26944,12 +26944,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="60" t="s">
@@ -26992,7 +26992,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -27004,7 +27004,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -28307,12 +28307,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -28320,6 +28314,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F35:F36">
@@ -28341,7 +28341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CF9E9F-86C0-4D00-8406-05BD8AD5028C}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -28367,12 +28367,12 @@
         <v>450</v>
       </c>
       <c r="B1" s="59"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="9"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -28387,12 +28387,12 @@
         <v>452</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -28467,7 +28467,7 @@
         <v>457</v>
       </c>
       <c r="B6" s="59"/>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>45810</v>
       </c>
       <c r="D6" s="49"/>
@@ -28487,7 +28487,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>45810</v>
       </c>
       <c r="D7" s="49"/>
@@ -30062,12 +30062,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -30075,6 +30069,12 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F41:F42">
@@ -30093,6 +30093,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="78689f81-eeeb-4c8d-893a-98e7458bf120" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000409DA58A78A6245BCBB3902285FF196" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d979385fbfb338550e01f8743533933c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78689f81-eeeb-4c8d-893a-98e7458bf120" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c64c81be414ae7a0abe839c84566adf" ns3:_="">
     <xsd:import namespace="78689f81-eeeb-4c8d-893a-98e7458bf120"/>
@@ -30242,37 +30259,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="78689f81-eeeb-4c8d-893a-98e7458bf120" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D6C956B-DD59-47CC-B244-E176BD50243D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA064D8D-E783-4AB6-84D3-080A0CEF57B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="78689f81-eeeb-4c8d-893a-98e7458bf120"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30294,9 +30284,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA064D8D-E783-4AB6-84D3-080A0CEF57B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D6C956B-DD59-47CC-B244-E176BD50243D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78689f81-eeeb-4c8d-893a-98e7458bf120"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>